--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,220 +43,247 @@
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>pay</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>within</t>
+    <t>stay</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>week</t>
+    <t>received</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>doll</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>like</t>
@@ -268,124 +295,151 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>elf</t>
-  </si>
-  <si>
     <t>helicopter</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>wait</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>lego</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>ages</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>everyone</t>
+  </si>
+  <si>
     <t>lots</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
     <t>games</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
+    <t>children</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>kids</t>
+    <t>nice</t>
   </si>
   <si>
     <t>positive</t>
@@ -746,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +869,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9932432432432432</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -857,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.967741935483871</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K4">
-        <v>0.8301886792452831</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -915,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9578947368421052</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,31 +987,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L5">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="L5">
-        <v>77</v>
-      </c>
-      <c r="M5">
-        <v>77</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9577464788732394</v>
+        <v>0.9611650485436893</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="D6">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L6">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.956989247311828</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C7">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K7">
-        <v>0.8153846153846154</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9563106796116505</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="C8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8">
+        <v>0.859375</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8">
-        <v>0.8125</v>
-      </c>
-      <c r="L8">
-        <v>52</v>
-      </c>
-      <c r="M8">
-        <v>52</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9074074074074074</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,16 +1190,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K9">
-        <v>0.8091286307053942</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>390</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8828125</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D10">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.873015873015873</v>
+        <v>0.8828125</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K11">
-        <v>0.7678571428571429</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8695652173913043</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K12">
-        <v>0.763271162123386</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L12">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <v>532</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.828125</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,31 +1387,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L13">
+        <v>42</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13">
-        <v>0.7454545454545455</v>
-      </c>
-      <c r="L13">
-        <v>41</v>
-      </c>
-      <c r="M13">
-        <v>41</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,16 +1440,16 @@
         <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K14">
-        <v>0.7321428571428571</v>
+        <v>0.7883817427385892</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K15">
-        <v>0.6956521739130435</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1519,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8032786885245902</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>0.6788990825688074</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L16">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="M16">
-        <v>222</v>
+        <v>527</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7962962962962963</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K17">
-        <v>0.6515151515151515</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7914691943127962</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K18">
-        <v>0.6428571428571429</v>
+        <v>0.71875</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7710843373493976</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,31 +1687,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19">
+        <v>0.6941896024464832</v>
+      </c>
+      <c r="L19">
+        <v>227</v>
+      </c>
+      <c r="M19">
+        <v>227</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>100</v>
-      </c>
-      <c r="K19">
-        <v>0.6144578313253012</v>
-      </c>
-      <c r="L19">
-        <v>102</v>
-      </c>
-      <c r="M19">
-        <v>102</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7567567567567568</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K20">
-        <v>0.6119770303527482</v>
+        <v>0.6807228915662651</v>
       </c>
       <c r="L20">
-        <v>746</v>
+        <v>113</v>
       </c>
       <c r="M20">
-        <v>747</v>
+        <v>113</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1704,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>473</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.746031746031746</v>
+        <v>0.7835051546391752</v>
       </c>
       <c r="C21">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K21">
-        <v>0.5710306406685237</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L21">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1819,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7422680412371134</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K22">
-        <v>0.5609756097560976</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7368421052631579</v>
+        <v>0.7630331753554502</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K23">
-        <v>0.4871794871794872</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1919,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K24">
-        <v>0.4416666666666667</v>
+        <v>0.6072308956450287</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>739</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>742</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>67</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7241379310344828</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C25">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K25">
-        <v>0.4098360655737705</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +2019,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7101449275362319</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K26">
-        <v>0.3968253968253968</v>
+        <v>0.5738161559888579</v>
       </c>
       <c r="L26">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="M26">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7037037037037037</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K27">
-        <v>0.3804347826086957</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2119,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6964285714285714</v>
+        <v>0.6951219512195121</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K28">
-        <v>0.3788174139051332</v>
+        <v>0.52</v>
       </c>
       <c r="L28">
-        <v>583</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>585</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2104,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>956</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2169,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6951219512195121</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="L29">
         <v>25</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29">
-        <v>0.3614035087719298</v>
-      </c>
-      <c r="L29">
-        <v>412</v>
-      </c>
       <c r="M29">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2154,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>728</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2219,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6857142857142857</v>
+        <v>0.6867469879518072</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K30">
-        <v>0.336</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2269,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6485148514851485</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C31">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K31">
-        <v>0.3188405797101449</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6405797101449275</v>
+        <v>0.675</v>
       </c>
       <c r="C32">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K32">
-        <v>0.2467532467532468</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2307,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2369,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6302521008403361</v>
+        <v>0.6435643564356436</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K33">
-        <v>0.1748251748251748</v>
+        <v>0.4249512670565302</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>118</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.625</v>
+        <v>0.6434782608695652</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,31 +2437,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K34">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>136</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,49 +2469,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6158730158730159</v>
+        <v>0.640625</v>
       </c>
       <c r="C35">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K35">
-        <v>0.1397849462365591</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>320</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2519,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5789473684210527</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,31 +2537,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K36">
-        <v>0.1393728222996516</v>
+        <v>0.3688524590163935</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>247</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2569,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.578125</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K37">
-        <v>0.1243243243243243</v>
+        <v>0.3511852502194908</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>162</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2565,13 +2619,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5540540540540541</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2583,31 +2637,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K38">
-        <v>0.1183800623052959</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2615,13 +2669,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5476190476190477</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2633,31 +2687,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K39">
-        <v>0.1093117408906883</v>
+        <v>0.288</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>220</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2665,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5333333333333333</v>
+        <v>0.5569620253164557</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2683,31 +2737,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K40">
-        <v>0.07785234899328859</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>687</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2736,28 +2790,28 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K41">
-        <v>0.05612244897959184</v>
+        <v>0.2342657342657343</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N41">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>370</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2765,13 +2819,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2783,31 +2837,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K42">
-        <v>0.0427807486631016</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N42">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>537</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2815,13 +2869,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4719101123595505</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2833,7 +2887,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43">
+        <v>0.1796875</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2841,13 +2919,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4615384615384616</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2859,7 +2937,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44">
+        <v>0.15527950310559</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2867,13 +2969,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4583333333333333</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2885,7 +2987,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45">
+        <v>0.1474530831099196</v>
+      </c>
+      <c r="L45">
+        <v>55</v>
+      </c>
+      <c r="M45">
+        <v>56</v>
+      </c>
+      <c r="N45">
+        <v>0.98</v>
+      </c>
+      <c r="O45">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2893,13 +3019,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4464285714285715</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2911,7 +3037,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46">
+        <v>0.144578313253012</v>
+      </c>
+      <c r="L46">
+        <v>36</v>
+      </c>
+      <c r="M46">
+        <v>36</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2919,25 +3069,49 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4335443037974683</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D47">
-        <v>137</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>179</v>
+      <c r="K47">
+        <v>0.1269349845201238</v>
+      </c>
+      <c r="L47">
+        <v>41</v>
+      </c>
+      <c r="M47">
+        <v>42</v>
+      </c>
+      <c r="N47">
+        <v>0.98</v>
+      </c>
+      <c r="O47">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2945,13 +3119,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2963,21 +3137,45 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48">
+        <v>0.124331550802139</v>
+      </c>
+      <c r="L48">
+        <v>93</v>
+      </c>
+      <c r="M48">
+        <v>97</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3833333333333334</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2989,21 +3187,45 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49">
+        <v>0.109452736318408</v>
+      </c>
+      <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <v>0.85</v>
+      </c>
+      <c r="O49">
+        <v>0.15</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3720930232558139</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3015,21 +3237,45 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50">
+        <v>0.08905852417302799</v>
+      </c>
+      <c r="L50">
+        <v>35</v>
+      </c>
+      <c r="M50">
+        <v>38</v>
+      </c>
+      <c r="N50">
+        <v>0.92</v>
+      </c>
+      <c r="O50">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3675213675213675</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3041,21 +3287,45 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K51">
+        <v>0.08275862068965517</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>24</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.358695652173913</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="C52">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3067,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3387978142076503</v>
+        <v>0.37</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D53">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3093,21 +3363,21 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.33</v>
+        <v>0.3659420289855073</v>
       </c>
       <c r="C54">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D54">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3119,21 +3389,21 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3076923076923077</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3145,125 +3415,125 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2592592592592592</v>
+        <v>0.3387978142076503</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2544378698224852</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2511144130757801</v>
+        <v>0.3070866141732284</v>
       </c>
       <c r="C58">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="D58">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2307692307692308</v>
+        <v>0.3070866141732284</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D59">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2214285714285714</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="C60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3275,99 +3545,99 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2112676056338028</v>
+        <v>0.2744479495268139</v>
       </c>
       <c r="C61">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D61">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2017291066282421</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="C62">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D62">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E62">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F62">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1959459459459459</v>
+        <v>0.245575221238938</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1924290220820189</v>
+        <v>0.2364864864864865</v>
       </c>
       <c r="C64">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D64">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3379,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>256</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3387,25 +3657,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1811023622047244</v>
+        <v>0.2354694485842027</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>104</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3413,13 +3683,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1784140969162996</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="C66">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D66">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3431,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>373</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3439,25 +3709,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1725190839694656</v>
+        <v>0.2276657060518732</v>
       </c>
       <c r="C67">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D67">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>542</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3465,13 +3735,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1612903225806452</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3483,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3491,25 +3761,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.158974358974359</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F69">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3517,13 +3787,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1314285714285714</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3535,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3543,25 +3813,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1210526315789474</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E71">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F71">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3569,25 +3839,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1126373626373626</v>
+        <v>0.167741935483871</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E72">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F72">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>323</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3595,25 +3865,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.111913357400722</v>
+        <v>0.1653905053598775</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F73">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>246</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3621,25 +3891,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0979020979020979</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C74">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E74">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>387</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3647,25 +3917,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09659090909090909</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>318</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3673,25 +3943,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.04455445544554455</v>
+        <v>0.1502347417840376</v>
       </c>
       <c r="C76">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E76">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F76">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>579</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3699,25 +3969,259 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0316055625790139</v>
+        <v>0.1381818181818182</v>
       </c>
       <c r="C77">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>43</v>
+      </c>
+      <c r="E77">
+        <v>0.12</v>
+      </c>
+      <c r="F77">
+        <v>0.88</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.1186046511627907</v>
+      </c>
+      <c r="C78">
+        <v>51</v>
+      </c>
+      <c r="D78">
+        <v>54</v>
+      </c>
+      <c r="E78">
+        <v>0.06</v>
+      </c>
+      <c r="F78">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.1056338028169014</v>
+      </c>
+      <c r="C79">
+        <v>45</v>
+      </c>
+      <c r="D79">
+        <v>53</v>
+      </c>
+      <c r="E79">
+        <v>0.15</v>
+      </c>
+      <c r="F79">
+        <v>0.85</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.1045197740112994</v>
+      </c>
+      <c r="C80">
+        <v>37</v>
+      </c>
+      <c r="D80">
+        <v>38</v>
+      </c>
+      <c r="E80">
+        <v>0.03</v>
+      </c>
+      <c r="F80">
+        <v>0.97</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="C81">
+        <v>35</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.09398496240601503</v>
+      </c>
+      <c r="C82">
         <v>25</v>
       </c>
-      <c r="D77">
+      <c r="D82">
+        <v>26</v>
+      </c>
+      <c r="E82">
+        <v>0.04</v>
+      </c>
+      <c r="F82">
+        <v>0.96</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.07308970099667775</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>22</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.04838709677419355</v>
+      </c>
+      <c r="C84">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>0.25</v>
+      </c>
+      <c r="F84">
+        <v>0.75</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.04152823920265781</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>0.19</v>
+      </c>
+      <c r="F85">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.0356234096692112</v>
+      </c>
+      <c r="C86">
         <v>28</v>
       </c>
-      <c r="E77">
-        <v>0.11</v>
-      </c>
-      <c r="F77">
-        <v>0.89</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>766</v>
+      <c r="D86">
+        <v>36</v>
+      </c>
+      <c r="E86">
+        <v>0.22</v>
+      </c>
+      <c r="F86">
+        <v>0.78</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
